--- a/00_datasets/titanic_df.xlsx
+++ b/00_datasets/titanic_df.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/797eddfb6c94bbe5/python_ka_chilla/04_libraries/dataframes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/797eddfb6c94bbe5/python_ka_chilla/00_datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_065512B9D3F05A01939B2011595ED87656C5A141" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E59531A8-B3B3-4040-A70E-D1E735D2727C}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_065512B9D3F05A01939B2011595ED87656C5A141" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F525914D-33A2-4CF4-937A-DFFD332EC852}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28980" windowHeight="15691" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -177,9 +177,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -198,7 +196,50 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -211,8 +252,27 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E3D3BC83-26D8-4102-833A-E76C115442FB}" name="Table1" displayName="Table1" ref="A1:O892" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{98ACF168-BA37-4E19-B5E8-369C3FB599E8}" name="survived"/>
+    <tableColumn id="2" xr3:uid="{7E7B3BDB-5BFB-4954-9300-D6C4F61B718A}" name="pclass"/>
+    <tableColumn id="3" xr3:uid="{432CD116-74D1-41B7-8105-232EA314E8D8}" name="sex"/>
+    <tableColumn id="4" xr3:uid="{C118CE04-7286-426C-BF50-B7DDCB77259A}" name="age"/>
+    <tableColumn id="5" xr3:uid="{973B28D8-DB5B-430B-8365-1C09638A790C}" name="sibsp"/>
+    <tableColumn id="6" xr3:uid="{E54CA9EE-22A0-4270-8F9E-945282E560A9}" name="parch"/>
+    <tableColumn id="7" xr3:uid="{92CBA8DD-9CB8-4F3A-A8CD-C14C1F9002E1}" name="fare"/>
+    <tableColumn id="8" xr3:uid="{1B580567-7B6C-4169-B4E3-339FE809AB3F}" name="embarked"/>
+    <tableColumn id="9" xr3:uid="{A02DDC41-DB67-4BB2-8D6C-3D1FA13701E2}" name="class"/>
+    <tableColumn id="10" xr3:uid="{F52E44DE-9C07-4996-9C7C-484B3004A921}" name="who"/>
+    <tableColumn id="11" xr3:uid="{7673E276-2D08-4775-A55C-3C3B30C49DCC}" name="adult_male"/>
+    <tableColumn id="12" xr3:uid="{4256FFDD-8E4D-4816-9563-21A850F0689A}" name="deck"/>
+    <tableColumn id="13" xr3:uid="{5ACC6BE9-33A8-4929-B318-56195AC407B3}" name="embark_town"/>
+    <tableColumn id="14" xr3:uid="{E5A244A2-4C6C-4FDA-AC65-400A19248CDF}" name="alive"/>
+    <tableColumn id="15" xr3:uid="{CCDF9A4D-ADFA-4995-ACC7-9D272C8F62C5}" name="alone"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -505,10 +565,27 @@
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="8.06640625" customWidth="1"/>
+    <col min="2" max="2" width="6.1328125" customWidth="1"/>
+    <col min="3" max="3" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.3984375" customWidth="1"/>
+    <col min="6" max="6" width="5.796875" customWidth="1"/>
+    <col min="7" max="7" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.46484375" customWidth="1"/>
+    <col min="9" max="9" width="6.46484375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.53125" customWidth="1"/>
+    <col min="12" max="12" width="5.06640625" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="5.1328125" customWidth="1"/>
+    <col min="15" max="15" width="5.796875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
@@ -39829,5 +39906,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>